--- a/Result/VAR/Manufacturing/GBR.xlsx
+++ b/Result/VAR/Manufacturing/GBR.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,253 +460,263 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1861498136321273</v>
+        <v>16.34851261277244</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1462723672692778</v>
+        <v>15.98158659889426</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>1.08612549580921</v>
+        <v>15.78070533993826</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.64373041036912</v>
+        <v>15.62618578580509</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7014256317998893</v>
+        <v>16.13450302075714</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01749388578440048</v>
+        <v>15.02320778762683</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4102556280046699</v>
+        <v>14.60751480252285</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01647347737456961</v>
+        <v>14.53307206947269</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08768748974215868</v>
+        <v>13.96331715652476</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3806953459334981</v>
+        <v>13.25523150715377</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>0.584426814335</v>
+        <v>12.76125226968025</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2332977501066509</v>
+        <v>12.16293585454992</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.08802418611617036</v>
+        <v>11.81488314858483</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1631844645992704</v>
+        <v>11.29679392207856</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1420496398980706</v>
+        <v>10.79010221186542</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.228256565715883</v>
+        <v>10.19286611920129</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4101264163371674</v>
+        <v>9.658172001456801</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2602234441339153</v>
+        <v>9.12388564631158</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7903387446148802</v>
+        <v>9.127175872459807</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.5495461876364143</v>
+        <v>9.429053375060612</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1151453675476262</v>
+        <v>9.31925680585835</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2545438080889237</v>
+        <v>9.191184095254377</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3905133620431247</v>
+        <v>9.286579300688176</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06704707856053638</v>
+        <v>9.229008577443738</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.105538789128472</v>
+        <v>9.277717568678062</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9.246561685550196</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -754,7 +764,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4879700736307859</v>
+        <v>9.091551032237028</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -764,7 +774,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4238004715953214</v>
+        <v>9.034868436721139</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -774,7 +784,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1165453717670853</v>
+        <v>8.872825948994585</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -784,7 +794,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07833196332453649</v>
+        <v>8.671859836956372</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -794,7 +804,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01696780582089005</v>
+        <v>8.455512845908467</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -810,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,323 +852,313 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>16.66798755183352</v>
+        <v>16.35780381523324</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>16.26393514474525</v>
+        <v>15.99708723071187</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>16.04603255128911</v>
+        <v>15.80822708564829</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>15.68185759056369</v>
+        <v>15.61419812433326</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>16.40380812564748</v>
+        <v>16.15905137132411</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>15.48202825036215</v>
+        <v>14.98637656597831</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>15.26167400687671</v>
+        <v>14.60131971262905</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>15.05881364917567</v>
+        <v>14.50597442511093</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>14.44569766346996</v>
+        <v>13.94005769589224</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>13.84905515513882</v>
+        <v>13.29492189885921</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>13.34010013654984</v>
+        <v>12.77961544559738</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>12.45044977202736</v>
+        <v>12.13474002445686</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>12.14522622183988</v>
+        <v>11.81139876245226</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>11.60670492154575</v>
+        <v>11.27988034478522</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>10.98015943513545</v>
+        <v>10.7605353213657</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>10.51679841332442</v>
+        <v>10.18235583274619</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>10.19548703141146</v>
+        <v>9.678251857101811</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>9.645919083782617</v>
+        <v>9.177854239585541</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>9.506477552490942</v>
+        <v>9.163506200746166</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>9.106812577065352</v>
+        <v>9.398282865931689</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>9.497486346254641</v>
+        <v>9.332768226404772</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>9.338613927807517</v>
+        <v>9.200742868701889</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>9.294886876908018</v>
+        <v>9.236044495030399</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>9.505703634097443</v>
+        <v>9.228445665686619</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>9.326007029243744</v>
+        <v>9.266104444289955</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B27" t="n">
-        <v>9.213357502950581</v>
+        <v>9.192078825911381</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B28" t="n">
-        <v>8.995169187528946</v>
+        <v>8.99858008755346</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B29" t="n">
-        <v>8.947601570326869</v>
+        <v>8.925955819152035</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B30" t="n">
-        <v>8.846981668337641</v>
+        <v>8.777554871029992</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B31" t="n">
-        <v>8.879728176020482</v>
+        <v>8.6486165104794</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B32" t="n">
-        <v>8.697854008196687</v>
+        <v>8.861079728764233</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B33" t="n">
-        <v>8.76690832410466</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1206,7 +1206,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.6689415928547493</v>
+        <v>8.643679258073417</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7046475900935887</v>
+        <v>8.754281420825849</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4401896010263391</v>
+        <v>8.817577466088505</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5034494873825566</v>
+        <v>8.908767729247709</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1326798663097665</v>
+        <v>8.994035717411041</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
